--- a/tables/problems_count.xlsx
+++ b/tables/problems_count.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">

--- a/tables/problems_count.xlsx
+++ b/tables/problems_count.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
